--- a/building/building-template.xlsx
+++ b/building/building-template.xlsx
@@ -9,7 +9,6 @@
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="このシートについて" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="114">
   <si>
     <t xml:space="preserve">addon</t>
   </si>
@@ -130,6 +129,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">datt</t>
     </r>
@@ -138,6 +138,7 @@
         <sz val="10"/>
         <rFont val="IPAゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">に記述した名前</t>
     </r>
@@ -148,6 +149,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ja.tab</t>
     </r>
@@ -156,6 +158,7 @@
         <sz val="10"/>
         <rFont val="IPAゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">用の名前</t>
     </r>
@@ -166,6 +169,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">en.tab</t>
     </r>
@@ -174,6 +178,7 @@
         <sz val="10"/>
         <rFont val="IPAゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">用の名前</t>
     </r>
@@ -344,12 +349,18 @@
     <t xml:space="preserve">管制塔</t>
   </si>
   <si>
+    <t xml:space="preserve">このシートは建築物・停車場用Excelシートのテンプレートです。</t>
+  </si>
+  <si>
     <t xml:space="preserve">ここまで</t>
   </si>
   <si>
     <t xml:space="preserve">この列は</t>
   </si>
   <si>
+    <t xml:space="preserve">適宜コピーし、不要な行・列を削除して利用してください。</t>
+  </si>
+  <si>
     <t xml:space="preserve">全施設</t>
   </si>
   <si>
@@ -362,6 +373,9 @@
     <t xml:space="preserve">のみ</t>
   </si>
   <si>
+    <t xml:space="preserve">7行目まで入力規則が設定されています。記入する際にはオートフィルで入力規則をコピーしてください。</t>
+  </si>
+  <si>
     <t xml:space="preserve">type=res</t>
   </si>
   <si>
@@ -420,12 +434,6 @@
   </si>
   <si>
     <t xml:space="preserve">つまり、プレイヤーが建てる建物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">このシートは建築物・停車場用Excelシートのテンプレートです。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">適宜コピーし、不要な行・列を削除して利用してください</t>
   </si>
 </sst>
 </file>
@@ -440,6 +448,7 @@
       <sz val="10"/>
       <name val="IPAゴシック"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -460,23 +469,27 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="IPAゴシック"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF778899"/>
       <name val="IPAゴシック"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="IPAゴシック"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -521,7 +534,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -534,11 +547,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -546,19 +559,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -566,15 +567,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -768,7 +765,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -777,10 +774,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="19.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.82"/>
@@ -788,14 +785,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="14.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="13.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="0" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="34" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="18.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="13.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="1" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="34" style="1" width="15.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -871,41 +868,41 @@
       <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="3" customFormat="true" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>34</v>
@@ -940,7 +937,7 @@
       <c r="L2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>45</v>
       </c>
       <c r="N2" s="5" t="s">
@@ -952,7 +949,7 @@
       <c r="P2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>49</v>
       </c>
       <c r="R2" s="1" t="s">
@@ -961,19 +958,19 @@
       <c r="S2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="5" t="s">
         <v>56</v>
       </c>
       <c r="Y2" s="3" t="s">
@@ -982,591 +979,602 @@
       <c r="Z2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AE2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AF2" s="5" t="s">
         <v>64</v>
       </c>
       <c r="AG2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AH2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AI2" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="6" t="n">
         <v>1980</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="6" t="n">
         <v>2000</v>
       </c>
-      <c r="H3" s="8" t="n">
+      <c r="H3" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="9" t="n">
+      <c r="J3" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="K3" s="8" t="n">
+      <c r="K3" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="8" t="n">
+      <c r="M3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="8" t="n">
+      <c r="P3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="R3" s="9" t="n">
+      <c r="R3" s="6" t="n">
         <v>123</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="9" t="n">
+      <c r="W3" s="6" t="n">
         <v>2000</v>
       </c>
-      <c r="X3" s="9" t="n">
+      <c r="X3" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="Y3" s="9" t="n">
+      <c r="Y3" s="6" t="n">
         <v>10000</v>
       </c>
-      <c r="Z3" s="9" t="n">
+      <c r="Z3" s="6" t="n">
         <v>1000</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AA3" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AB3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AC3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AD3" s="9" t="n">
+      <c r="AD3" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AE3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AF3" s="9" t="n">
+      <c r="AF3" s="6" t="n">
         <v>2000</v>
       </c>
-      <c r="AG3" s="9" t="n">
+      <c r="AG3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AH3" s="9" t="s">
+      <c r="AH3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AI3" s="9" t="s">
+      <c r="AI3" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="U8" s="0" t="s">
+      <c r="T8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="V8" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="W8" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="X8" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y8" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC8" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD8" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE8" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH8" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI8" s="0" t="s">
-        <v>86</v>
+      <c r="U8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T9" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="U9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="V9" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="W9" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="X9" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y9" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC9" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD9" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE9" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH9" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI9" s="0" t="s">
-        <v>88</v>
+      <c r="T9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T10" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="U10" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="V10" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="W10" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="X10" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y10" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC10" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD10" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE10" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH10" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI10" s="0" t="s">
-        <v>90</v>
+      <c r="T10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U12" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="V12" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="W12" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="X12" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y12" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC12" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD12" s="0" t="s">
+      <c r="U12" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AE12" s="12" t="s">
+      <c r="V12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="W12" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="0" t="s">
+      <c r="X12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y12" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AH12" s="0" t="s">
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AI12" s="0" t="s">
+      <c r="AE12" s="8" t="s">
         <v>98</v>
       </c>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U13" s="7" t="s">
+      <c r="U13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD13" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="U14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="U15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="U16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y16" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AD16" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="U17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y17" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="V13" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="X13" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y13" s="13" t="s">
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AD17" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Y18" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AD18" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD19" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y20" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AD20" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD21" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD13" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="W14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y14" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD14" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y15" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="V16" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y16" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AD16" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="V17" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y17" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AD17" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Y18" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AD18" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U19" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD19" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U20" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y20" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AD20" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD21" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1649,38 +1657,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2:B3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="2" customFormat="false" ht="11.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/building/building-template.xlsx
+++ b/building/building-template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="117">
   <si>
     <t xml:space="preserve">addon</t>
   </si>
@@ -52,61 +52,67 @@
     <t xml:space="preserve">level</t>
   </si>
   <si>
+    <t xml:space="preserve">demand_capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tourists_base_trend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tourists_sigma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tourists_override</t>
+  </si>
+  <si>
+    <t xml:space="preserve">employment_capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commuters_base_trend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commuters_sigma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commuters_override</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail_demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">under_pier_ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pier_sub_needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clusters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">build_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allow_underground</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waytype</t>
+  </si>
+  <si>
     <t xml:space="preserve">capacity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tourist_base_trend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tourist_sigma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tourist_override</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commuter_base_trend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commuter_sigma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commuter_override</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mail_demand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">under_pier_ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pier_sub_needed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">climates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clusters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">build_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allow_underground</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waytype</t>
   </si>
   <si>
     <t xml:space="preserve">signal_groups</t>
@@ -216,6 +222,9 @@
   <si>
     <t xml:space="preserve">観光客のクラス(上書き)
 カンマ区切り</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通勤者数</t>
   </si>
   <si>
     <t xml:space="preserve">通勤客のクラス傾向
@@ -758,14 +767,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI21"/>
+  <dimension ref="A1:AK21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="O7" activeCellId="0" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -779,20 +788,23 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="19.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="20.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="23.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="14.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="13.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="18.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="13.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="1" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="34" style="1" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="23.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="18.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="13.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="14.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="16.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -856,7 +868,7 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="3" t="s">
@@ -865,10 +877,10 @@
       <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
@@ -884,141 +896,148 @@
         <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="R2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="T2" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH2" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="AG2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="AI2" s="5" t="s">
-        <v>67</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E3" s="6" t="n">
         <v>1980</v>
@@ -1033,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>12</v>
@@ -1042,76 +1061,79 @@
         <v>34</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M3" s="6" t="n">
         <v>1</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="P3" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="O3" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="R3" s="6" t="n">
+      <c r="R3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" s="6" t="n">
         <v>123</v>
       </c>
-      <c r="S3" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="T3" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="W3" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X3" s="6" t="n">
         <v>2000</v>
       </c>
-      <c r="X3" s="6" t="n">
+      <c r="Y3" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="Y3" s="6" t="n">
+      <c r="Z3" s="6" t="n">
         <v>10000</v>
       </c>
-      <c r="Z3" s="6" t="n">
+      <c r="AA3" s="6" t="n">
         <v>1000</v>
       </c>
-      <c r="AA3" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="AB3" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD3" s="6" t="n">
+        <v>83</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE3" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="AE3" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF3" s="6" t="n">
+      <c r="AF3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG3" s="6" t="n">
         <v>2000</v>
       </c>
-      <c r="AG3" s="6" t="n">
+      <c r="AH3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AH3" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="AI3" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1150,6 +1172,7 @@
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
       <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
@@ -1187,6 +1210,7 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
       <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
@@ -1224,6 +1248,7 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
@@ -1261,346 +1286,347 @@
       <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
       <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y8" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z8" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="AA8" s="8"/>
-      <c r="AB8" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="AB8" s="8"/>
       <c r="AC8" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE8" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG8" s="8"/>
       <c r="AH8" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z9" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="AA9" s="8"/>
-      <c r="AB9" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="AB9" s="8"/>
       <c r="AC9" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG9" s="8"/>
       <c r="AH9" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T10" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="U10" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z10" s="8"/>
+        <v>95</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="AA10" s="8"/>
-      <c r="AB10" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="AB10" s="8"/>
       <c r="AC10" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF10" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG10" s="8"/>
       <c r="AH10" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U12" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="V12" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y12" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z12" s="9"/>
+        <v>98</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z12" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="AA12" s="9"/>
-      <c r="AB12" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="AB12" s="9"/>
       <c r="AC12" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF12" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="V13" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z13" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE13" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="V14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z14" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="V15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z15" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="V16" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="1" t="s">
+      <c r="W16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z16" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AE16" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="V17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AE17" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Z18" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AE18" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AH12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI12" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="V13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="W13" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="X13" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y13" s="9" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE19" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z20" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AE20" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE21" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC13" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD13" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U14" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="V14" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="W14" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y14" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U15" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y15" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U16" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y16" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AD16" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U17" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y17" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AD17" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Y18" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AD18" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD19" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y20" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AD20" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD21" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="Z20:AB20"/>
   </mergeCells>
   <dataValidations count="13">
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A3:A7" type="list">
       <formula1>"含,無視"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3:E7 G3:G7 J3:K7 R3:R7 W3:W7 AD3:AD7 AF3:AG7" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3:E7 G3:G7 J3:K7 O3:O7 S3:S7 X3:X7 AE3:AE7 AG3:AH7" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1612,39 +1638,39 @@
       <formula1>"res,com,ind,tow,mon,cur,stop,harbour,dock,extension,depot,hq,signalbox"</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L3:L7 O3:O7" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L3:L7 P3:P7" type="list">
       <formula1>"最低,低,中,高,最高"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M3:M7 P3:P7" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M3:M7 Q3:Q7" type="decimal">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="X3:X7" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y3:Y7" type="whole">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA3:AA7" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB3:AB7" type="list">
       <formula1>"地上のみ,地下のみ,地上・地下"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB3:AB7" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC3:AC7" type="list">
       <formula1>"なし,旅客のみ,郵便のみ,貨物のみ,旅客/郵便,旅客/貨物,郵便/貨物,旅客/郵便/貨物"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC3:AC7" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AD3:AD7" type="list">
       <formula1>"road,track,tram_track,monorail_track,maglev_track,water,air,power"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AI3:AI7" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AJ3:AJ7" type="list">
       <formula1>"管制塔"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S3:S7" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T3:T7" type="list">
       <formula1>"置けない,1段の高架下,2段の高架下"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T3:T7" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U3:U7" type="list">
       <formula1>"高架下のみ,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
